--- a/SOURCE/duan2019/config/temp/Survey_NN.xlsx
+++ b/SOURCE/duan2019/config/temp/Survey_NN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DONG\STFC\qldt\SOURCE\duan2019\src\main\resources\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\OUTSOURCE\qldt\SOURCE\duan2019\config\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" tabRatio="891"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10236" tabRatio="891"/>
   </bookViews>
   <sheets>
     <sheet name="CC18" sheetId="9" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t xml:space="preserve">Kinh phí sử dụng cho công tác ĐT, BD nước ngoài năm 2018 (ĐVT: triệu đồng): </t>
   </si>
   <si>
-    <t>KẾT QUẢ ĐÀO TẠO, BỒI DƯỠNG CÔNG CHỨC Ở TRONG NƯỚC NĂM 2018</t>
-  </si>
-  <si>
     <t>KẾT QUẢ ĐÀO TẠO, BỒI DƯỠNG VIÊN CHỨC TRONG NƯỚC NĂM 2018</t>
   </si>
   <si>
@@ -350,6 +347,9 @@
   </si>
   <si>
     <t>${data.positionType}</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH ĐÀO TẠO, BỒI DƯỠNG CÔNG CHỨC Ở TRONG NƯỚC NĂM 2019</t>
   </si>
 </sst>
 </file>
@@ -950,6 +950,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,12 +989,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -980,22 +1001,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1007,80 +1022,65 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2402,133 +2402,133 @@
   <dimension ref="A2:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:AB12"/>
+      <selection activeCell="A6" sqref="A6:AB6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="5" customWidth="1"/>
-    <col min="4" max="5" width="4.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="4.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="7" customWidth="1"/>
     <col min="8" max="8" width="6" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="7" customWidth="1"/>
     <col min="11" max="11" width="4" style="7" customWidth="1"/>
     <col min="12" max="12" width="4" style="5" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" style="5" customWidth="1"/>
     <col min="14" max="15" width="4" style="5" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="5" customWidth="1"/>
     <col min="17" max="17" width="4" style="5" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" style="5" customWidth="1"/>
     <col min="19" max="21" width="5" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" style="5" customWidth="1"/>
-    <col min="24" max="24" width="5.140625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="4.7109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.109375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="5.109375" style="5" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="5" customWidth="1"/>
     <col min="26" max="26" width="5" style="5" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" style="5" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" style="5" customWidth="1"/>
     <col min="28" max="28" width="5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="16.5">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+    <row r="2" spans="1:28" ht="16.8">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="16.5">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
+    <row r="3" spans="1:28" ht="16.8">
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="16.5">
+    <row r="4" spans="1:28" ht="16.8">
       <c r="A4" s="1"/>
       <c r="B4" s="18"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:28" ht="18.75">
-      <c r="A5" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75">
-      <c r="A6" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
+    <row r="5" spans="1:28" ht="17.399999999999999">
+      <c r="A5" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+    </row>
+    <row r="6" spans="1:28" ht="16.2">
+      <c r="A6" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
     </row>
     <row r="7" spans="1:28" ht="6" customHeight="1">
       <c r="A7" s="4"/>
@@ -2560,82 +2560,82 @@
       <c r="AA7" s="34"/>
       <c r="AB7" s="34"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
+    <row r="8" spans="1:28" ht="15.6">
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
       <c r="Q8" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="48.75" customHeight="1">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="84" t="s">
+      <c r="C9" s="93"/>
+      <c r="D9" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84" t="s">
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84" t="s">
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84" t="s">
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="93" t="s">
+      <c r="S9" s="82"/>
+      <c r="T9" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="93" t="s">
+      <c r="X9" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="93" t="s">
+      <c r="Y9" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="93" t="s">
+      <c r="Z9" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="84" t="s">
+      <c r="AA9" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="AB9" s="84"/>
+      <c r="AB9" s="82"/>
     </row>
     <row r="10" spans="1:28" ht="51.75" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="14" t="s">
         <v>3</v>
       </c>
@@ -2643,10 +2643,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="75" t="s">
         <v>80</v>
-      </c>
-      <c r="G10" s="75" t="s">
-        <v>81</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>6</v>
@@ -2693,10 +2693,10 @@
       <c r="V10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
       <c r="AA10" s="14" t="s">
         <v>37</v>
       </c>
@@ -2710,195 +2710,195 @@
         <v>1</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="F11" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="G11" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="H11" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="I11" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="J11" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="77" t="s">
+      <c r="K11" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="77" t="s">
+      <c r="L11" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="M11" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="77" t="s">
+      <c r="N11" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="77" t="s">
+      <c r="O11" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="77" t="s">
+      <c r="P11" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="77" t="s">
+      <c r="Q11" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="77" t="s">
+      <c r="R11" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="77" t="s">
+      <c r="S11" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="S11" s="77" t="s">
+      <c r="T11" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="T11" s="77" t="s">
+      <c r="U11" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="U11" s="77" t="s">
+      <c r="V11" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="V11" s="77" t="s">
+      <c r="W11" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="W11" s="77" t="s">
+      <c r="X11" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="X11" s="77" t="s">
+      <c r="Y11" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="Y11" s="77" t="s">
+      <c r="Z11" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="Z11" s="77" t="s">
+      <c r="AA11" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="AA11" s="77" t="s">
+      <c r="AB11" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="AB11" s="77" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="12" spans="1:28" s="48" customFormat="1">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="122">
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="79">
         <f ca="1">SUM(D11:INDIRECT("D"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="79">
         <f ca="1">SUM(E11:INDIRECT("E"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="122">
+      <c r="F12" s="79">
         <f ca="1">SUM(F11:INDIRECT("F"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="122">
+      <c r="G12" s="79">
         <f ca="1">SUM(G11:INDIRECT("G"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="122">
+      <c r="H12" s="79">
         <f ca="1">SUM(H11:INDIRECT("H"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="122">
+      <c r="I12" s="79">
         <f ca="1">SUM(I11:INDIRECT("I"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="J12" s="122">
+      <c r="J12" s="79">
         <f ca="1">SUM(J11:INDIRECT("J"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="122">
+      <c r="K12" s="79">
         <f ca="1">SUM(K11:INDIRECT("K"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="L12" s="122">
+      <c r="L12" s="79">
         <f ca="1">SUM(L11:INDIRECT("L"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="122">
+      <c r="M12" s="79">
         <f ca="1">SUM(M11:INDIRECT("M"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="N12" s="122">
+      <c r="N12" s="79">
         <f ca="1">SUM(N11:INDIRECT("N"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="O12" s="122">
+      <c r="O12" s="79">
         <f ca="1">SUM(O11:INDIRECT("O"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="P12" s="122">
+      <c r="P12" s="79">
         <f ca="1">SUM(P11:INDIRECT("P"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="122">
+      <c r="Q12" s="79">
         <f ca="1">SUM(Q11:INDIRECT("Q"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="R12" s="122">
+      <c r="R12" s="79">
         <f ca="1">SUM(R11:INDIRECT("R"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="S12" s="122">
+      <c r="S12" s="79">
         <f ca="1">SUM(S11:INDIRECT("S"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="T12" s="122">
+      <c r="T12" s="79">
         <f ca="1">SUM(T11:INDIRECT("T"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="U12" s="122">
+      <c r="U12" s="79">
         <f ca="1">SUM(U11:INDIRECT("U"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="V12" s="122">
+      <c r="V12" s="79">
         <f ca="1">SUM(V11:INDIRECT("V"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="W12" s="122">
+      <c r="W12" s="79">
         <f ca="1">SUM(W11:INDIRECT("W"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="X12" s="122">
+      <c r="X12" s="79">
         <f ca="1">SUM(X11:INDIRECT("X"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="122">
+      <c r="Y12" s="79">
         <f ca="1">SUM(Y11:INDIRECT("Y"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="122">
+      <c r="Z12" s="79">
         <f ca="1">SUM(Z11:INDIRECT("Z"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="122">
+      <c r="AA12" s="79">
         <f ca="1">SUM(AA11:INDIRECT("AA"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="122">
+      <c r="AB12" s="79">
         <f ca="1">SUM(AB11:INDIRECT("AB"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="48" customFormat="1" ht="14.25">
+    <row r="13" spans="1:28" s="48" customFormat="1" ht="13.8">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -2958,7 +2958,7 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="25"/>
     </row>
-    <row r="15" spans="1:28" s="47" customFormat="1" ht="15.75">
+    <row r="15" spans="1:28" s="47" customFormat="1" ht="15.6">
       <c r="A15" s="57"/>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
@@ -2976,9 +2976,9 @@
       <c r="O15" s="57"/>
       <c r="P15" s="57"/>
       <c r="Q15" s="57"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
       <c r="U15" s="57"/>
       <c r="V15" s="57"/>
       <c r="W15" s="57"/>
@@ -2995,9 +2995,9 @@
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="54"/>
       <c r="K16" s="54"/>
       <c r="L16" s="54"/>
@@ -3024,9 +3024,9 @@
       <c r="C17" s="25"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
       <c r="N17" s="51"/>
@@ -3067,6 +3067,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A5:AB5"/>
     <mergeCell ref="A6:AB6"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="D9:G9"/>
@@ -3078,18 +3090,6 @@
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:V9"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A5:AB5"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.28740157500000002" right="0.143700787" top="0.393700787" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
@@ -3107,59 +3107,59 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="4" style="7" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="4" style="5" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="4" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" style="7" customWidth="1"/>
     <col min="11" max="11" width="4" style="7" customWidth="1"/>
     <col min="12" max="14" width="4" style="5" customWidth="1"/>
-    <col min="15" max="17" width="3.7109375" style="5" customWidth="1"/>
-    <col min="18" max="19" width="3.85546875" style="5" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="3.85546875" style="5" customWidth="1"/>
+    <col min="15" max="17" width="3.6640625" style="5" customWidth="1"/>
+    <col min="18" max="19" width="3.88671875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="4.88671875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="3.88671875" style="5" customWidth="1"/>
     <col min="22" max="22" width="5" style="5" customWidth="1"/>
-    <col min="23" max="23" width="4.140625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" style="5" customWidth="1"/>
     <col min="24" max="24" width="5" style="5" customWidth="1"/>
-    <col min="25" max="27" width="4.7109375" style="5" customWidth="1"/>
-    <col min="28" max="28" width="5.42578125" style="5" customWidth="1"/>
-    <col min="29" max="30" width="4.7109375" style="5" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="5"/>
+    <col min="25" max="27" width="4.6640625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="5.44140625" style="5" customWidth="1"/>
+    <col min="29" max="30" width="4.6640625" style="5" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1">
@@ -3168,152 +3168,152 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:30" ht="23.25" customHeight="1">
-      <c r="A5" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-    </row>
-    <row r="6" spans="1:30" customFormat="1" ht="15.75">
-      <c r="A6" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.75">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
+      <c r="A5" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+    </row>
+    <row r="6" spans="1:30" customFormat="1" ht="16.2">
+      <c r="A6" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.6">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
       <c r="Q7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="R7" s="21"/>
     </row>
     <row r="8" spans="1:30" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="84" t="s">
+      <c r="C8" s="93"/>
+      <c r="D8" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84" t="s">
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84" t="s">
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="95" t="s">
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="84" t="s">
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="W8" s="84"/>
-      <c r="X8" s="93" t="s">
+      <c r="W8" s="82"/>
+      <c r="X8" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="Y8" s="93" t="s">
+      <c r="Y8" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="Z8" s="93" t="s">
+      <c r="Z8" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AA8" s="93" t="s">
+      <c r="AA8" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="AB8" s="93" t="s">
+      <c r="AB8" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AC8" s="84" t="s">
+      <c r="AC8" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="AD8" s="84"/>
+      <c r="AD8" s="82"/>
     </row>
     <row r="9" spans="1:30" s="15" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A9" s="84"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="14" t="s">
         <v>3</v>
       </c>
@@ -3321,10 +3321,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="76" t="s">
         <v>80</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>81</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>6</v>
@@ -3374,11 +3374,11 @@
       <c r="W9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
       <c r="AC9" s="14" t="s">
         <v>37</v>
       </c>
@@ -3386,11 +3386,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="15" customFormat="1" ht="22.5">
-      <c r="A10" s="100">
+    <row r="10" spans="1:30" s="15" customFormat="1" ht="20.399999999999999">
+      <c r="A10" s="99">
         <v>1</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="98" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -3445,8 +3445,8 @@
       </c>
     </row>
     <row r="11" spans="1:30" s="15" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A11" s="100"/>
-      <c r="B11" s="99"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
@@ -3513,10 +3513,10 @@
       </c>
     </row>
     <row r="12" spans="1:30" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="84">
+      <c r="A12" s="82">
         <v>2</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3579,8 +3579,8 @@
       </c>
     </row>
     <row r="13" spans="1:30" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="84"/>
-      <c r="B13" s="99"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="13" t="s">
         <v>41</v>
       </c>
@@ -3651,8 +3651,8 @@
       </c>
     </row>
     <row r="14" spans="1:30" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="84"/>
-      <c r="B14" s="99"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="13" t="s">
         <v>42</v>
       </c>
@@ -3723,8 +3723,8 @@
       </c>
     </row>
     <row r="15" spans="1:30" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="84"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="13" t="s">
         <v>43</v>
       </c>
@@ -3787,10 +3787,10 @@
       </c>
     </row>
     <row r="16" spans="1:30" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="84">
+      <c r="A16" s="82">
         <v>3</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="98" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -3853,8 +3853,8 @@
       </c>
     </row>
     <row r="17" spans="1:31" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="84"/>
-      <c r="B17" s="99"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="13" t="s">
         <v>41</v>
       </c>
@@ -3925,8 +3925,8 @@
       </c>
     </row>
     <row r="18" spans="1:31" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="84"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="13" t="s">
         <v>42</v>
       </c>
@@ -3997,8 +3997,8 @@
       </c>
     </row>
     <row r="19" spans="1:31" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="84"/>
-      <c r="B19" s="99"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
@@ -4061,11 +4061,11 @@
       </c>
     </row>
     <row r="20" spans="1:31" s="36" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="42">
         <f>SUM(D12:D19)</f>
         <v>72</v>
@@ -4175,7 +4175,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="36" customFormat="1" ht="7.15" customHeight="1">
+    <row r="21" spans="1:31" s="36" customFormat="1" ht="7.2" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
@@ -4261,11 +4261,11 @@
       <c r="Q23" s="54"/>
       <c r="R23" s="54"/>
       <c r="S23" s="54"/>
-      <c r="T23" s="101">
+      <c r="T23" s="96">
         <v>3680</v>
       </c>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
       <c r="W23" s="54"/>
       <c r="X23" s="54"/>
       <c r="Y23" s="54"/>
@@ -4284,9 +4284,9 @@
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
       <c r="J24" s="54"/>
       <c r="K24" s="54"/>
       <c r="L24" s="54"/>
@@ -4321,9 +4321,9 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
       <c r="N25" s="51"/>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="C30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="65">
         <f>+SUM(D20:G20)</f>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="C31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="65">
         <f>+SUM(H20:K20)</f>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="C32" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="65">
         <f>+SUM(L20:AA20)</f>
@@ -4383,22 +4383,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="A3:B3"/>
@@ -4413,6 +4397,22 @@
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AB8:AB9"/>
     <mergeCell ref="B8:C9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="D8:G8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.39370078740157499" top="0.19685039400000001" bottom="0.196850393700787" header="0.31496062992126" footer="0.31496062992126"/>
@@ -4430,20 +4430,20 @@
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="23" customWidth="1"/>
-    <col min="4" max="9" width="8.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="23" customWidth="1"/>
+    <col min="4" max="9" width="8.109375" style="22" customWidth="1"/>
     <col min="10" max="11" width="7" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="22" customWidth="1"/>
-    <col min="14" max="15" width="5.140625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="22" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" style="22" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="22" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="35"/>
+    <col min="12" max="12" width="12.109375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="22" customWidth="1"/>
+    <col min="14" max="15" width="5.109375" style="22" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="22" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" style="22" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" style="22" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="5" customFormat="1" ht="13.5" customHeight="1">
@@ -4461,43 +4461,43 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:30" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:30" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -4517,27 +4517,27 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:30" s="5" customFormat="1" ht="18.75">
-      <c r="A5" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
+    <row r="5" spans="1:30" s="5" customFormat="1" ht="17.399999999999999">
+      <c r="A5" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
@@ -4548,27 +4548,27 @@
       <c r="Z5" s="30"/>
       <c r="AA5" s="30"/>
     </row>
-    <row r="6" spans="1:30" customFormat="1" ht="15.75">
-      <c r="A6" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
+    <row r="6" spans="1:30" customFormat="1" ht="16.2">
+      <c r="A6" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
       <c r="S6" s="31"/>
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
@@ -4614,36 +4614,36 @@
       <c r="AA7" s="31"/>
     </row>
     <row r="8" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="115" t="s">
+      <c r="C8" s="110"/>
+      <c r="D8" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115" t="s">
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="104" t="s">
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="103" t="s">
+      <c r="Q8" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="103"/>
+      <c r="R8" s="115"/>
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
@@ -4655,9 +4655,9 @@
       <c r="AA8" s="31"/>
     </row>
     <row r="9" spans="1:30" ht="78.75" customHeight="1">
-      <c r="A9" s="111"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="38" t="s">
         <v>54</v>
       </c>
@@ -4694,7 +4694,7 @@
       <c r="O9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="105"/>
+      <c r="P9" s="117"/>
       <c r="Q9" s="39" t="s">
         <v>37</v>
       </c>
@@ -4703,10 +4703,10 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="39" customHeight="1">
-      <c r="A10" s="109">
+      <c r="A10" s="119">
         <v>1</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="113" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -4736,8 +4736,8 @@
       <c r="R10" s="43"/>
     </row>
     <row r="11" spans="1:30" ht="27.75" customHeight="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="107"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="26" t="s">
         <v>50</v>
       </c>
@@ -4782,8 +4782,8 @@
       </c>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1">
-      <c r="A12" s="110"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="26" t="s">
         <v>15</v>
       </c>
@@ -4830,10 +4830,10 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1">
-      <c r="A13" s="109">
+      <c r="A13" s="119">
         <v>2</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="113" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -4880,8 +4880,8 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="27.75" customHeight="1">
-      <c r="A14" s="110"/>
-      <c r="B14" s="108"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="26" t="s">
         <v>52</v>
       </c>
@@ -4927,10 +4927,10 @@
       <c r="A15" s="27">
         <v>3</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="117"/>
+      <c r="C15" s="108"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
@@ -4972,10 +4972,10 @@
       <c r="A16" s="27">
         <v>4</v>
       </c>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="117"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="17" spans="1:30" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="27"/>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="103"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="44">
         <f>SUM(D10:D16)</f>
         <v>33</v>
@@ -5126,11 +5126,11 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="113">
+      <c r="J20" s="104">
         <f>+E21+E22</f>
         <v>2550</v>
       </c>
-      <c r="K20" s="114"/>
+      <c r="K20" s="105"/>
       <c r="L20" s="54"/>
       <c r="M20" s="54"/>
       <c r="N20" s="54"/>
@@ -5146,9 +5146,9 @@
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
       <c r="J21" s="54"/>
@@ -5178,11 +5178,11 @@
         <v>66</v>
       </c>
       <c r="D22" s="22"/>
-      <c r="E22" s="112">
+      <c r="E22" s="103">
         <v>2550</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="25"/>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
@@ -5205,7 +5205,7 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="5"/>
     </row>
-    <row r="23" spans="1:30" ht="15.75">
+    <row r="23" spans="1:30" ht="15.6">
       <c r="A23" s="29"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -5227,6 +5227,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="M8:O8"/>
@@ -5237,18 +5249,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D8:L8"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A5:R5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.196850393700787" top="0.393700787" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
